--- a/biology/Histoire de la zoologie et de la botanique/Jerzy_Prószyński/Jerzy_Prószyński.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jerzy_Prószyński/Jerzy_Prószyński.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jerzy_Pr%C3%B3szy%C5%84ski</t>
+          <t>Jerzy_Prószyński</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jerzy Prószyński est un arachnologiste polonais né en 1935.
 Il travaille au muséum de Varsovie et à l'institut de zoologie de l'Académie des sciences de Pologne à Varsovie. Il est spécialiste des araignées de la famille des Salticidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jerzy_Pr%C3%B3szy%C5%84ski</t>
+          <t>Jerzy_Prószyński</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nesticella proszynskii (Lehtinen &amp; Saaristo, 1980)
 Zodariellum proszynskii (Nenilin &amp; Fet, 1985)
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jerzy_Pr%C3%B3szy%C5%84ski</t>
+          <t>Jerzy_Prószyński</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aelurillus catherinae Prószyński, 2000
